--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il10-Il10ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il10-Il10ra.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>36.26745966666667</v>
+        <v>2.070935</v>
       </c>
       <c r="H2">
-        <v>108.802379</v>
+        <v>6.212805</v>
       </c>
       <c r="I2">
-        <v>0.643144256662053</v>
+        <v>0.09632749399019591</v>
       </c>
       <c r="J2">
-        <v>0.643144256662053</v>
+        <v>0.09632749399019594</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>17.50728866666667</v>
+        <v>0.060838</v>
       </c>
       <c r="N2">
-        <v>52.521866</v>
+        <v>0.182514</v>
       </c>
       <c r="O2">
-        <v>0.2429365863908956</v>
+        <v>0.001214238342664256</v>
       </c>
       <c r="P2">
-        <v>0.2429365863908957</v>
+        <v>0.001214238342664256</v>
       </c>
       <c r="Q2">
-        <v>634.944885591024</v>
+        <v>0.12599154353</v>
       </c>
       <c r="R2">
-        <v>5714.503970319215</v>
+        <v>1.13392389177</v>
       </c>
       <c r="S2">
-        <v>0.1562432702703892</v>
+        <v>0.0001169645366556565</v>
       </c>
       <c r="T2">
-        <v>0.1562432702703892</v>
+        <v>0.0001169645366556566</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>36.26745966666667</v>
+        <v>2.070935</v>
       </c>
       <c r="H3">
-        <v>108.802379</v>
+        <v>6.212805</v>
       </c>
       <c r="I3">
-        <v>0.643144256662053</v>
+        <v>0.09632749399019591</v>
       </c>
       <c r="J3">
-        <v>0.643144256662053</v>
+        <v>0.09632749399019594</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.557973</v>
+        <v>50.042999</v>
       </c>
       <c r="N3">
-        <v>163.673919</v>
+        <v>150.128997</v>
       </c>
       <c r="O3">
-        <v>0.7570634136091043</v>
+        <v>0.9987857616573358</v>
       </c>
       <c r="P3">
-        <v>0.7570634136091045</v>
+        <v>0.9987857616573358</v>
       </c>
       <c r="Q3">
-        <v>1978.67908527259</v>
+        <v>103.635798134065</v>
       </c>
       <c r="R3">
-        <v>17808.11176745331</v>
+        <v>932.722183206585</v>
       </c>
       <c r="S3">
-        <v>0.4869009863916638</v>
+        <v>0.09621052945354026</v>
       </c>
       <c r="T3">
-        <v>0.4869009863916638</v>
+        <v>0.09621052945354029</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>9.627425000000001</v>
       </c>
       <c r="I4">
-        <v>0.05690889438359308</v>
+        <v>0.1492700517445119</v>
       </c>
       <c r="J4">
-        <v>0.05690889438359308</v>
+        <v>0.1492700517445119</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>17.50728866666667</v>
+        <v>0.060838</v>
       </c>
       <c r="N4">
-        <v>52.521866</v>
+        <v>0.182514</v>
       </c>
       <c r="O4">
-        <v>0.2429365863908956</v>
+        <v>0.001214238342664256</v>
       </c>
       <c r="P4">
-        <v>0.2429365863908957</v>
+        <v>0.001214238342664256</v>
       </c>
       <c r="Q4">
-        <v>56.18336953056112</v>
+        <v>0.1952377607166667</v>
       </c>
       <c r="R4">
-        <v>505.6503257750501</v>
+        <v>1.75713984645</v>
       </c>
       <c r="S4">
-        <v>0.01382525253683011</v>
+        <v>0.0001812494202396637</v>
       </c>
       <c r="T4">
-        <v>0.01382525253683012</v>
+        <v>0.0001812494202396638</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>9.627425000000001</v>
       </c>
       <c r="I5">
-        <v>0.05690889438359308</v>
+        <v>0.1492700517445119</v>
       </c>
       <c r="J5">
-        <v>0.05690889438359308</v>
+        <v>0.1492700517445119</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.557973</v>
+        <v>50.042999</v>
       </c>
       <c r="N5">
-        <v>163.673919</v>
+        <v>150.128997</v>
       </c>
       <c r="O5">
-        <v>0.7570634136091043</v>
+        <v>0.9987857616573358</v>
       </c>
       <c r="P5">
-        <v>0.7570634136091045</v>
+        <v>0.9987857616573358</v>
       </c>
       <c r="Q5">
-        <v>175.084264403175</v>
+        <v>160.5950732158583</v>
       </c>
       <c r="R5">
-        <v>1575.758379628575</v>
+        <v>1445.355658942725</v>
       </c>
       <c r="S5">
-        <v>0.04308364184676296</v>
+        <v>0.1490888023242722</v>
       </c>
       <c r="T5">
-        <v>0.04308364184676296</v>
+        <v>0.1490888023242722</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.927863</v>
+        <v>1.134776333333333</v>
       </c>
       <c r="H6">
-        <v>2.783589</v>
+        <v>3.404329</v>
       </c>
       <c r="I6">
-        <v>0.01645413725978976</v>
+        <v>0.05278299919088877</v>
       </c>
       <c r="J6">
-        <v>0.01645413725978976</v>
+        <v>0.05278299919088877</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>17.50728866666667</v>
+        <v>0.060838</v>
       </c>
       <c r="N6">
-        <v>52.521866</v>
+        <v>0.182514</v>
       </c>
       <c r="O6">
-        <v>0.2429365863908956</v>
+        <v>0.001214238342664256</v>
       </c>
       <c r="P6">
-        <v>0.2429365863908957</v>
+        <v>0.001214238342664256</v>
       </c>
       <c r="Q6">
-        <v>16.24436538411933</v>
+        <v>0.06903752256733334</v>
       </c>
       <c r="R6">
-        <v>146.199288457074</v>
+        <v>0.6213377031060001</v>
       </c>
       <c r="S6">
-        <v>0.00399731193790057</v>
+        <v>6.409114145839352E-05</v>
       </c>
       <c r="T6">
-        <v>0.003997311937900571</v>
+        <v>6.409114145839352E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.927863</v>
+        <v>1.134776333333333</v>
       </c>
       <c r="H7">
-        <v>2.783589</v>
+        <v>3.404329</v>
       </c>
       <c r="I7">
-        <v>0.01645413725978976</v>
+        <v>0.05278299919088877</v>
       </c>
       <c r="J7">
-        <v>0.01645413725978976</v>
+        <v>0.05278299919088877</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.557973</v>
+        <v>50.042999</v>
       </c>
       <c r="N7">
-        <v>163.673919</v>
+        <v>150.128997</v>
       </c>
       <c r="O7">
-        <v>0.7570634136091043</v>
+        <v>0.9987857616573358</v>
       </c>
       <c r="P7">
-        <v>0.7570634136091045</v>
+        <v>0.9987857616573358</v>
       </c>
       <c r="Q7">
-        <v>50.622324501699</v>
+        <v>56.78761091422367</v>
       </c>
       <c r="R7">
-        <v>455.600920515291</v>
+        <v>511.088498228013</v>
       </c>
       <c r="S7">
-        <v>0.01245682532188919</v>
+        <v>0.05271890804943038</v>
       </c>
       <c r="T7">
-        <v>0.01245682532188919</v>
+        <v>0.05271890804943039</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.98639866666667</v>
+        <v>15.08404533333333</v>
       </c>
       <c r="H8">
-        <v>47.95919600000001</v>
+        <v>45.252136</v>
       </c>
       <c r="I8">
-        <v>0.2834927116945641</v>
+        <v>0.7016194550744034</v>
       </c>
       <c r="J8">
-        <v>0.2834927116945642</v>
+        <v>0.7016194550744034</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,28 +927,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>17.50728866666667</v>
+        <v>0.060838</v>
       </c>
       <c r="N8">
-        <v>52.521866</v>
+        <v>0.182514</v>
       </c>
       <c r="O8">
-        <v>0.2429365863908956</v>
+        <v>0.001214238342664256</v>
       </c>
       <c r="P8">
-        <v>0.2429365863908957</v>
+        <v>0.001214238342664256</v>
       </c>
       <c r="Q8">
-        <v>279.8784961977485</v>
+        <v>0.9176831499893334</v>
       </c>
       <c r="R8">
-        <v>2518.906465779736</v>
+        <v>8.259148349904001</v>
       </c>
       <c r="S8">
-        <v>0.06887075164577575</v>
+        <v>0.0008519332443105417</v>
       </c>
       <c r="T8">
-        <v>0.06887075164577577</v>
+        <v>0.0008519332443105417</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.98639866666667</v>
+        <v>15.08404533333333</v>
       </c>
       <c r="H9">
-        <v>47.95919600000001</v>
+        <v>45.252136</v>
       </c>
       <c r="I9">
-        <v>0.2834927116945641</v>
+        <v>0.7016194550744034</v>
       </c>
       <c r="J9">
-        <v>0.2834927116945642</v>
+        <v>0.7016194550744034</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.557973</v>
+        <v>50.042999</v>
       </c>
       <c r="N9">
-        <v>163.673919</v>
+        <v>150.128997</v>
       </c>
       <c r="O9">
-        <v>0.7570634136091043</v>
+        <v>0.9987857616573358</v>
       </c>
       <c r="P9">
-        <v>0.7570634136091045</v>
+        <v>0.9987857616573358</v>
       </c>
       <c r="Q9">
-        <v>872.1855068232361</v>
+        <v>754.8508655319547</v>
       </c>
       <c r="R9">
-        <v>7849.669561409126</v>
+        <v>6793.657789787592</v>
       </c>
       <c r="S9">
-        <v>0.2146219600487884</v>
+        <v>0.7007675218300928</v>
       </c>
       <c r="T9">
-        <v>0.2146219600487884</v>
+        <v>0.7007675218300928</v>
       </c>
     </row>
   </sheetData>
